--- a/biology/Botanique/Deinbollia_macrantha/Deinbollia_macrantha.xlsx
+++ b/biology/Botanique/Deinbollia_macrantha/Deinbollia_macrantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Deinbollia macrantha est une espèce de petit arbre de la famille des Sapindaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un petit arbre ramifié appartenant aux feuilles composées de 1 m de longueur ; les folioles lancéolées et acuminées, le limbe chartacé, vert jaunâtre, sub-sessiles. L'inflorescence est ramifiée et les boutons floraux glabres.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la trouve au Cameroun[1] et à Madagascar[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve au Cameroun et à Madagascar.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Deinbollia macrantha Radlk, in GBIF Secretariat (2017), GBIF Backbone Taxonomy, Checklist Dataset GBIF.org
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deinbollia macrantha Radlk, in GBIF Secretariat (2017), GBIF Backbone Taxonomy, Checklist Dataset GBIF.org
 Fouilloy R., Hallé N., Flore du Cameroun No 16; Sapindacées, Muséum National d'Histoire Naturelle, Paris, 1973, 202 p.
-The Plant List (2013). Version 1.1. [1]</t>
+The Plant List (2013). Version 1.1. </t>
         </is>
       </c>
     </row>
